--- a/tutorial/data_calc_water.xlsx
+++ b/tutorial/data_calc_water.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexweiranli/Desktop/pyAp_test/read_the_docs/pyAp_thermo/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexweiranli/Documents/0python/pyAp-main/tutorial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7118C2D-1EFE-764D-A648-C9539741F942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7837EE4-7186-AF4A-933A-A8594B9C4BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31480" yWindow="1040" windowWidth="28040" windowHeight="16180" xr2:uid="{A18DE42B-85EF-BD4D-9AA1-ED1B738F0A0F}"/>
+    <workbookView xWindow="-26420" yWindow="500" windowWidth="28040" windowHeight="16000" activeTab="1" xr2:uid="{A18DE42B-85EF-BD4D-9AA1-ED1B738F0A0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>XF</t>
   </si>
@@ -85,13 +86,31 @@
   </si>
   <si>
     <t>rhyolite</t>
+  </si>
+  <si>
+    <t>Rhyolite</t>
+  </si>
+  <si>
+    <t>Dacite</t>
+  </si>
+  <si>
+    <t>Alkali Basalt</t>
+  </si>
+  <si>
+    <t>Ap1c_2</t>
+  </si>
+  <si>
+    <t>Ap1c_3</t>
+  </si>
+  <si>
+    <t>Ap1c_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -106,6 +125,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -137,6 +163,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513B52F3-38A5-554E-A795-2493D938EABB}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -617,4 +646,171 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242E4C4F-35DD-2C4E-A013-6204F1056182}">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.40066499999999999</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.17205999999999999</v>
+      </c>
+      <c r="D2" s="4">
+        <v>600</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2">
+        <v>950</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J2" s="1">
+        <v>100</v>
+      </c>
+      <c r="K2" s="1">
+        <v>100</v>
+      </c>
+      <c r="L2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.40066499999999999</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.17205999999999999</v>
+      </c>
+      <c r="D3" s="4">
+        <v>600</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2">
+        <v>950</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J3" s="1">
+        <v>100</v>
+      </c>
+      <c r="K3" s="1">
+        <v>100</v>
+      </c>
+      <c r="L3" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.40066499999999999</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.17205999999999999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>600</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2">
+        <v>950</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J4" s="1">
+        <v>100</v>
+      </c>
+      <c r="K4" s="1">
+        <v>100</v>
+      </c>
+      <c r="L4" s="1">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>